--- a/ExcelReadtest/contacts.xlsx
+++ b/ExcelReadtest/contacts.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>language1</t>
+    <t>first</t>
   </si>
   <si>
-    <t>language2</t>
+    <t>second</t>
   </si>
   <si>
     <t>happy times, great vibes</t>
   </si>
   <si>
-    <t/>
+    <t>खुश समय, महान वाइब्स</t>
   </si>
 </sst>
 </file>
@@ -81,7 +81,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.75390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
